--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3715880.813016524</v>
+        <v>3713504.186069157</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>98.25918840768288</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>23.94563726208645</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>188.4649415276189</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>108.0165900216661</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>291.8554944408499</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>13.18609391401973</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>70.89010232327543</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>84.77350972403201</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>182.9377227717322</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542835</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>47.65883542934953</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>34.67929910923817</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="14">
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1850,13 +1850,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>251.5502284016991</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3272,13 +3272,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722633</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,10 +3958,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>527.8767859460538</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>527.8767859460538</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>527.8767859460538</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>527.8767859460538</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>520.9312851968504</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4331,7 +4331,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4373,7 +4373,7 @@
         <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460538</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4413,19 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.463386300792</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1006.01552520271</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C4" t="n">
-        <v>837.0793422748035</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>686.9627028624677</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>539.0496092800746</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>392.1596617821642</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>224.1731970904428</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>75.43429895394902</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>1408.45656917648</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y4" t="n">
-        <v>1187.66399003295</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1101.768613746537</v>
+        <v>603.6036480119274</v>
       </c>
       <c r="C5" t="n">
-        <v>1101.768613746537</v>
+        <v>494.4959813233758</v>
       </c>
       <c r="D5" t="n">
-        <v>743.5029151397866</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E5" t="n">
-        <v>357.7146625415424</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872906</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764997</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.507785786471</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y5" t="n">
-        <v>1488.368453810659</v>
+        <v>990.2034880760491</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4638,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>114.543262603435</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>299.264883884485</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>593.9684409159566</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751767</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.2765195627319</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
         <v>51.24678656800311</v>
@@ -4723,25 +4723,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1564.839956111593</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1341.861475306328</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.743137810166</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V7" t="n">
-        <v>798.0586496042794</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W7" t="n">
-        <v>798.0586496042794</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X7" t="n">
-        <v>570.069098706262</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="Y7" t="n">
-        <v>349.2765195627319</v>
+        <v>383.6188956900839</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.739488336033</v>
+        <v>884.1849331278579</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.776971395622</v>
+        <v>884.1849331278579</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.511272788871</v>
+        <v>525.9192345211075</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.723020190627</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>651.7371154010195</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>236.0323651253084</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
         <v>2360.886721764997</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.339328400155</v>
+        <v>1270.78477319198</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4881,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>575.6256845144198</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>870.3292415458916</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505112</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657496</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378427</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255069</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431138</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452035</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2344.887784772826</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2125.286319795768</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6215,13 +6215,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,22 +6303,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6540,19 +6540,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6677,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6707,40 +6707,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7254,19 +7254,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8061,22 +8061,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.5911984019047</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>70.03064962107919</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.9377812015499</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9556134883067173</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>154.016902016519</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>30.3692565058945</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>146.3469868924064</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194173</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5874149221289144</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624258</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,10 +25846,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="M2" t="n">
-        <v>766789.2697055057</v>
-      </c>
       <c r="N2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.344331790858193e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,34 +26427,34 @@
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
+        <v>7507.368461719698</v>
+      </c>
+      <c r="G4" t="n">
         <v>7507.36846171969</v>
       </c>
-      <c r="G4" t="n">
-        <v>7507.368461719685</v>
-      </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719618</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719681</v>
+        <v>7507.368461719598</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719689</v>
+        <v>7507.368461719674</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171966</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-560813.7381914392</v>
+        <v>-560813.7381914391</v>
       </c>
       <c r="C6" t="n">
-        <v>553938.0453844805</v>
+        <v>553938.0453844804</v>
       </c>
       <c r="D6" t="n">
-        <v>553938.0453844805</v>
+        <v>553938.0453844806</v>
       </c>
       <c r="E6" t="n">
-        <v>150673.9297953335</v>
+        <v>150639.1918698974</v>
       </c>
       <c r="F6" t="n">
-        <v>658159.3714198791</v>
+        <v>658124.6334944434</v>
       </c>
       <c r="G6" t="n">
-        <v>658159.3714198794</v>
+        <v>658124.6334944434</v>
       </c>
       <c r="H6" t="n">
-        <v>658159.371419879</v>
+        <v>658124.6334944434</v>
       </c>
       <c r="I6" t="n">
-        <v>658159.3714198791</v>
+        <v>658124.6334944434</v>
       </c>
       <c r="J6" t="n">
-        <v>490554.1936098964</v>
+        <v>490519.4556844607</v>
       </c>
       <c r="K6" t="n">
-        <v>658159.3714198794</v>
+        <v>658124.6334944434</v>
       </c>
       <c r="L6" t="n">
-        <v>658159.3714198793</v>
+        <v>658124.6334944435</v>
       </c>
       <c r="M6" t="n">
-        <v>525552.0776909522</v>
+        <v>525517.339765517</v>
       </c>
       <c r="N6" t="n">
-        <v>658159.3714198793</v>
+        <v>658124.6334944431</v>
       </c>
       <c r="O6" t="n">
-        <v>658159.3714198793</v>
+        <v>658124.6334944434</v>
       </c>
       <c r="P6" t="n">
-        <v>658159.3714198793</v>
+        <v>658124.6334944434</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26817,10 +26817,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.430414738572741e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>313.2885143652711</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>80.85095794181413</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>30.11971182447584</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>257.2563017493414</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>115.0205513008615</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>166.6458862679176</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,7 +27822,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>123.772358038462</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>297.1568603482298</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>118.0808297906732</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193758</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>178.0508199596876</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28570,13 +28570,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,28 +32315,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32546,28 +32546,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33023,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,7 +33032,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33260,22 +33260,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614915</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,22 +33974,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34781,22 +34781,22 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>553.5225306839452</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>405.4553316172022</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>63.93583437922414</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>584.5244463807092</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>340.6043982600038</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>397.300588787935</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35270,10 +35270,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36671,7 +36671,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36908,22 +36908,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394733</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
